--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2455.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2455.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.074714911827009</v>
+        <v>1.64973783493042</v>
       </c>
       <c r="B1">
-        <v>2.349727825028047</v>
+        <v>1.928603172302246</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.480955123901367</v>
       </c>
       <c r="D1">
-        <v>2.857959891713131</v>
+        <v>4.155784606933594</v>
       </c>
       <c r="E1">
-        <v>0.9650037281937214</v>
+        <v>1.522474050521851</v>
       </c>
     </row>
   </sheetData>
